--- a/Tasks/processing/Sentences_Allocation_Tomer.xlsx
+++ b/Tasks/processing/Sentences_Allocation_Tomer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\stp-project\Tasks\processing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2174C3C9-AFDC-44A6-B536-35089D3718BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F430B7-2EB7-4F76-B698-E705B36062AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22650" yWindow="-2460" windowWidth="19575" windowHeight="10815" xr2:uid="{74B677E4-8333-4094-BF14-C6DBB3632FA7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{74B677E4-8333-4094-BF14-C6DBB3632FA7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,26 +33,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Before</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Tasks</t>
   </si>
   <si>
-    <t>After</t>
-  </si>
-  <si>
-    <t>Digit</t>
-  </si>
-  <si>
     <t>Dichotic</t>
   </si>
   <si>
-    <t>Before&amp;after</t>
-  </si>
-  <si>
     <t>total_task</t>
   </si>
   <si>
@@ -62,16 +50,13 @@
     <t>MAB</t>
   </si>
   <si>
-    <t>AFACT&amp;DigitBefore</t>
-  </si>
-  <si>
-    <t>AFACT&amp;Dichotic</t>
-  </si>
-  <si>
-    <t>AFACT&amp;MAB</t>
-  </si>
-  <si>
-    <t>MAB&amp;DigitPost</t>
+    <t>DigitBefore</t>
+  </si>
+  <si>
+    <t>DigitAfter</t>
+  </si>
+  <si>
+    <t>Alone</t>
   </si>
 </sst>
 </file>
@@ -423,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68DF4E39-A78F-4304-8BF4-D676B4BB3066}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,108 +419,96 @@
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="I4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
         <v>20</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
+      <c r="C6">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="E6">
         <v>10</v>
       </c>
     </row>
